--- a/data/validation_data.xlsx
+++ b/data/validation_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4991733133792877</v>
+        <v>0.5018953680992126</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8243333101272583</v>
+        <v>0.8245166540145874</v>
       </c>
       <c r="C2" t="n">
-        <v>0.423525333404541</v>
+        <v>0.4204171895980835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8475000262260437</v>
+        <v>0.8478999733924866</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -489,16 +489,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3733199536800385</v>
+        <v>0.3741623163223267</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8653500080108643</v>
+        <v>0.8644499778747559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.440580427646637</v>
+        <v>0.4616769552230835</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8461999893188477</v>
+        <v>0.8449000120162964</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -511,16 +511,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3339794874191284</v>
+        <v>0.332910031080246</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8784666657447815</v>
+        <v>0.8804500102996826</v>
       </c>
       <c r="C4" t="n">
-        <v>0.374489814043045</v>
+        <v>0.3633081614971161</v>
       </c>
       <c r="D4" t="n">
-        <v>0.864300012588501</v>
+        <v>0.8676000237464905</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3102116882801056</v>
+        <v>0.31056809425354</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8869666457176208</v>
+        <v>0.8862666487693787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.401042252779007</v>
+        <v>0.3729344010353088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8562999963760376</v>
+        <v>0.863099992275238</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.293372631072998</v>
+        <v>0.2929148375988007</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8916000127792358</v>
+        <v>0.8911499977111816</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3594071567058563</v>
+        <v>0.3589177131652832</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8691999912261963</v>
+        <v>0.8730999827384949</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -577,16 +577,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2782780528068542</v>
+        <v>0.2785197198390961</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8969166874885559</v>
+        <v>0.8964166641235352</v>
       </c>
       <c r="C7" t="n">
-        <v>0.370614230632782</v>
+        <v>0.3664833307266235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8622999787330627</v>
+        <v>0.8634999990463257</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -599,16 +599,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2676733732223511</v>
+        <v>0.2691355347633362</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9007333517074585</v>
+        <v>0.8998666405677795</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3618710935115814</v>
+        <v>0.3564507961273193</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8744000196456909</v>
+        <v>0.8737999796867371</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -621,16 +621,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2556066811084747</v>
+        <v>0.25749272108078</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9046000242233276</v>
+        <v>0.9055666923522949</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3268083333969116</v>
+        <v>0.3294308483600616</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8870999813079834</v>
+        <v>0.8817999958992004</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -643,16 +643,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.245376780629158</v>
+        <v>0.2480835914611816</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9091500043869019</v>
+        <v>0.908383309841156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3328400552272797</v>
+        <v>0.3246848583221436</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8810999989509583</v>
+        <v>0.8831999897956848</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -665,16 +665,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.238804817199707</v>
+        <v>0.2405912578105927</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9109500050544739</v>
+        <v>0.9106166958808899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3340176939964294</v>
+        <v>0.3368073701858521</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8828999996185303</v>
+        <v>0.8794000148773193</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -687,16 +687,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2282977700233459</v>
+        <v>0.2298950254917145</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9151666760444641</v>
+        <v>0.9139333367347717</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3379763960838318</v>
+        <v>0.3374631106853485</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8827000260353088</v>
+        <v>0.8815000057220459</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -709,16 +709,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2213423550128937</v>
+        <v>0.223334476351738</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9171333312988281</v>
+        <v>0.9168000221252441</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3397737145423889</v>
+        <v>0.3277738392353058</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8828999996185303</v>
+        <v>0.8844000101089478</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -731,16 +731,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2151194959878922</v>
+        <v>0.2176230847835541</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9192833304405212</v>
+        <v>0.9188500046730042</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3365097045898438</v>
+        <v>0.3258801400661469</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8815000057220459</v>
+        <v>0.8841000199317932</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -753,16 +753,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2090094983577728</v>
+        <v>0.2108327597379684</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9220333099365234</v>
+        <v>0.9216833114624023</v>
       </c>
       <c r="C15" t="n">
-        <v>0.324009507894516</v>
+        <v>0.333730161190033</v>
       </c>
       <c r="D15" t="n">
-        <v>0.890500009059906</v>
+        <v>0.8863000273704529</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
@@ -775,16 +775,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2006828486919403</v>
+        <v>0.2044939398765564</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9259666800498962</v>
+        <v>0.9241833090782166</v>
       </c>
       <c r="C16" t="n">
-        <v>0.351749986410141</v>
+        <v>0.337417870759964</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8802000284194946</v>
+        <v>0.8858000040054321</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -797,16 +797,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1968899071216583</v>
+        <v>0.1993812322616577</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9271500110626221</v>
+        <v>0.9251833558082581</v>
       </c>
       <c r="C17" t="n">
-        <v>0.346467524766922</v>
+        <v>0.3400706648826599</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8837000131607056</v>
+        <v>0.8845000267028809</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -819,16 +819,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1888939440250397</v>
+        <v>0.1921270042657852</v>
       </c>
       <c r="B18" t="n">
-        <v>0.929183304309845</v>
+        <v>0.9281333088874817</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3489716053009033</v>
+        <v>0.3414623737335205</v>
       </c>
       <c r="D18" t="n">
-        <v>0.883899986743927</v>
+        <v>0.887499988079071</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
@@ -841,16 +841,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.188057541847229</v>
+        <v>0.1878472566604614</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9294333457946777</v>
+        <v>0.928766667842865</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3296500146389008</v>
+        <v>0.3470046520233154</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8928999900817871</v>
+        <v>0.885200023651123</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
@@ -863,16 +863,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1808965653181076</v>
+        <v>0.1842282861471176</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9320666790008545</v>
+        <v>0.9301166534423828</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3549021184444427</v>
+        <v>0.359477162361145</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8866999745368958</v>
+        <v>0.8812000155448914</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
@@ -885,16 +885,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1752107441425323</v>
+        <v>0.1795414686203003</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9334333539009094</v>
+        <v>0.932699978351593</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3722710311412811</v>
+        <v>0.3856634795665741</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8884999752044678</v>
+        <v>0.882099986076355</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
@@ -907,16 +907,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5632336139678955</v>
+        <v>0.5610076785087585</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8068333268165588</v>
+        <v>0.8050000071525574</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4777165055274963</v>
+        <v>0.4687403738498688</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8302000164985657</v>
+        <v>0.8334000110626221</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -929,16 +929,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4209842681884766</v>
+        <v>0.4213875234127045</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8493666648864746</v>
+        <v>0.8496666550636292</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4605038166046143</v>
+        <v>0.46585413813591</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8349999785423279</v>
+        <v>0.8323000073432922</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -951,16 +951,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.3757381439208984</v>
+        <v>0.3742343187332153</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8659666776657104</v>
+        <v>0.8652666807174683</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4343891739845276</v>
+        <v>0.4331446290016174</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8432000279426575</v>
+        <v>0.843999981880188</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -973,16 +973,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.3510772883892059</v>
+        <v>0.3450649380683899</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8736666440963745</v>
+        <v>0.8739333152770996</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3922227919101715</v>
+        <v>0.4116289913654327</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8597999811172485</v>
+        <v>0.8528000116348267</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3239863216876984</v>
+        <v>0.3215458691120148</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8819000124931335</v>
+        <v>0.8821666836738586</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4132991135120392</v>
+        <v>0.3948110938072205</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8511999845504761</v>
+        <v>0.8598999977111816</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -1017,16 +1017,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3052628636360168</v>
+        <v>0.3026681244373322</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8895333409309387</v>
+        <v>0.8898333311080933</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3767675161361694</v>
+        <v>0.3771103918552399</v>
       </c>
       <c r="D27" t="n">
-        <v>0.864799976348877</v>
+        <v>0.8640000224113464</v>
       </c>
       <c r="E27" t="n">
         <v>6</v>
@@ -1039,16 +1039,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2876736521720886</v>
+        <v>0.2826419472694397</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8943666815757751</v>
+        <v>0.8957666754722595</v>
       </c>
       <c r="C28" t="n">
-        <v>0.36311274766922</v>
+        <v>0.3812655508518219</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8712999820709229</v>
+        <v>0.8652999997138977</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -1061,16 +1061,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2780970633029938</v>
+        <v>0.2747939229011536</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8980333209037781</v>
+        <v>0.8985666632652283</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3869377672672272</v>
+        <v>0.3851066827774048</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8622000217437744</v>
+        <v>0.8619999885559082</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -1083,16 +1083,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.2648570835590363</v>
+        <v>0.2612497210502625</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9021000266075134</v>
+        <v>0.904366672039032</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3928351104259491</v>
+        <v>0.3857253789901733</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8611999750137329</v>
+        <v>0.8615000247955322</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -1105,16 +1105,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.258311539888382</v>
+        <v>0.2531867325305939</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9049999713897705</v>
+        <v>0.9062333106994629</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3729157745838165</v>
+        <v>0.3809916377067566</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8669999837875366</v>
+        <v>0.8658000230789185</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2474635243415833</v>
+        <v>0.241676852107048</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9085000157356262</v>
+        <v>0.9103666543960571</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3760082423686981</v>
+        <v>0.3768970370292664</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8655999898910522</v>
+        <v>0.8730000257492065</v>
       </c>
       <c r="E32" t="n">
         <v>11</v>
@@ -1149,16 +1149,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2381905615329742</v>
+        <v>0.2335942536592484</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9114999771118164</v>
+        <v>0.9136000275611877</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3664921522140503</v>
+        <v>0.3566848337650299</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8677999973297119</v>
+        <v>0.8740000128746033</v>
       </c>
       <c r="E33" t="n">
         <v>12</v>
@@ -1171,16 +1171,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2302344292402267</v>
+        <v>0.2265752106904984</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9139999747276306</v>
+        <v>0.9162999987602234</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3831190764904022</v>
+        <v>0.3784372210502625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8669999837875366</v>
+        <v>0.8722000122070312</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -1193,16 +1193,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2219374179840088</v>
+        <v>0.2162474095821381</v>
       </c>
       <c r="B35" t="n">
-        <v>0.91839998960495</v>
+        <v>0.9198333621025085</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3594279587268829</v>
+        <v>0.3659124970436096</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8755000233650208</v>
+        <v>0.8766999840736389</v>
       </c>
       <c r="E35" t="n">
         <v>14</v>
@@ -1215,16 +1215,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.2134315520524979</v>
+        <v>0.2078012675046921</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9205333590507507</v>
+        <v>0.9222333431243896</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3827887177467346</v>
+        <v>0.4042334854602814</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8690999746322632</v>
+        <v>0.8641999959945679</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.2067928612232208</v>
+        <v>0.2023222595453262</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9229999780654907</v>
+        <v>0.9252333045005798</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3721978962421417</v>
+        <v>0.3690877258777618</v>
       </c>
       <c r="D37" t="n">
-        <v>0.875</v>
+        <v>0.8751999735832214</v>
       </c>
       <c r="E37" t="n">
         <v>16</v>
@@ -1259,16 +1259,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.203190952539444</v>
+        <v>0.1952718496322632</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9246333241462708</v>
+        <v>0.9269999861717224</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3727226555347443</v>
+        <v>0.3798797726631165</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8748999834060669</v>
+        <v>0.8776000142097473</v>
       </c>
       <c r="E38" t="n">
         <v>17</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1960975676774979</v>
+        <v>0.1898475140333176</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9285333156585693</v>
+        <v>0.9294000267982483</v>
       </c>
       <c r="C39" t="n">
-        <v>0.36326864361763</v>
+        <v>0.3804761171340942</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8780999779701233</v>
+        <v>0.8751000165939331</v>
       </c>
       <c r="E39" t="n">
         <v>18</v>
@@ -1303,16 +1303,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1884753853082657</v>
+        <v>0.182465448975563</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9339666962623596</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3971327543258667</v>
+        <v>0.4360106587409973</v>
       </c>
       <c r="D40" t="n">
-        <v>0.868399977684021</v>
+        <v>0.8604999780654907</v>
       </c>
       <c r="E40" t="n">
         <v>19</v>
@@ -1325,16 +1325,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1843212246894836</v>
+        <v>0.1774227023124695</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9316333532333374</v>
+        <v>0.9341999888420105</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3796576857566833</v>
+        <v>0.3820161819458008</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8770999908447266</v>
+        <v>0.8776999711990356</v>
       </c>
       <c r="E41" t="n">
         <v>20</v>
@@ -1347,16 +1347,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.654778003692627</v>
+        <v>0.6444041132926941</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7751333117485046</v>
+        <v>0.7780666947364807</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5223527550697327</v>
+        <v>0.5196971893310547</v>
       </c>
       <c r="D42" t="n">
-        <v>0.814300000667572</v>
+        <v>0.8154000043869019</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1369,16 +1369,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.4657173454761505</v>
+        <v>0.4681926369667053</v>
       </c>
       <c r="B43" t="n">
-        <v>0.837933361530304</v>
+        <v>0.8337333202362061</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4561029672622681</v>
+        <v>0.4547019898891449</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8416000008583069</v>
+        <v>0.8420000076293945</v>
       </c>
       <c r="E43" t="n">
         <v>2</v>
@@ -1391,16 +1391,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4103060662746429</v>
+        <v>0.4147217571735382</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8550666570663452</v>
+        <v>0.8528666496276855</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4417167007923126</v>
+        <v>0.4390490651130676</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8496000170707703</v>
+        <v>0.8474000096321106</v>
       </c>
       <c r="E44" t="n">
         <v>3</v>
@@ -1413,16 +1413,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.3740734755992889</v>
+        <v>0.382276862859726</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8651999831199646</v>
+        <v>0.8624666929244995</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5075173377990723</v>
+        <v>0.5278344750404358</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8209999799728394</v>
+        <v>0.8133999705314636</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -1435,16 +1435,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.345663845539093</v>
+        <v>0.3601857125759125</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8763999938964844</v>
+        <v>0.8704666495323181</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4291414618492126</v>
+        <v>0.4274271428585052</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8511000275611877</v>
+        <v>0.8518999814987183</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.3249388337135315</v>
+        <v>0.3357709944248199</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8834666609764099</v>
+        <v>0.8787333369255066</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3957449197769165</v>
+        <v>0.4008468091487885</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8610000014305115</v>
+        <v>0.8593999743461609</v>
       </c>
       <c r="E47" t="n">
         <v>6</v>
@@ -1479,16 +1479,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3098535239696503</v>
+        <v>0.3177190721035004</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8876000046730042</v>
+        <v>0.8846666812896729</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4213907718658447</v>
+        <v>0.4225316345691681</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8543000221252441</v>
+        <v>0.8544999957084656</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.293025404214859</v>
+        <v>0.3018160760402679</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8934666514396667</v>
+        <v>0.8898666501045227</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4079706966876984</v>
+        <v>0.4404600560665131</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8568000197410583</v>
+        <v>0.8465999960899353</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -1523,16 +1523,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.2776206135749817</v>
+        <v>0.2863131165504456</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8980000019073486</v>
+        <v>0.8938000202178955</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4148032367229462</v>
+        <v>0.4233620464801788</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8571000099182129</v>
+        <v>0.8547999858856201</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -1545,16 +1545,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.2701676189899445</v>
+        <v>0.2724036574363708</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9014000296592712</v>
+        <v>0.8973333239555359</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4505495131015778</v>
+        <v>0.4108289182186127</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8485000133514404</v>
+        <v>0.8572999835014343</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -1567,16 +1567,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.2574034631252289</v>
+        <v>0.2633582353591919</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9060666561126709</v>
+        <v>0.90420001745224</v>
       </c>
       <c r="C52" t="n">
-        <v>0.422466367483139</v>
+        <v>0.4238945245742798</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8565000295639038</v>
+        <v>0.8535000085830688</v>
       </c>
       <c r="E52" t="n">
         <v>11</v>
@@ -1589,16 +1589,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.2450146228075027</v>
+        <v>0.2536183893680573</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9095333218574524</v>
+        <v>0.9077333211898804</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3978373408317566</v>
+        <v>0.3962766528129578</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8637999892234802</v>
+        <v>0.8626999855041504</v>
       </c>
       <c r="E53" t="n">
         <v>12</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.234778419137001</v>
+        <v>0.2405482679605484</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9140666723251343</v>
+        <v>0.9125333428382874</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3957978487014771</v>
+        <v>0.4062395691871643</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8655999898910522</v>
+        <v>0.8614000082015991</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -1633,16 +1633,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.2296172380447388</v>
+        <v>0.2376809120178223</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9157333374023438</v>
+        <v>0.9129999876022339</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4076041281223297</v>
+        <v>0.3990384936332703</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8641999959945679</v>
+        <v>0.8671000003814697</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.2183806598186493</v>
+        <v>0.2248868495225906</v>
       </c>
       <c r="B56" t="n">
-        <v>0.921999990940094</v>
+        <v>0.9179333448410034</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4199594259262085</v>
+        <v>0.4120422899723053</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8569999933242798</v>
+        <v>0.8623999953269958</v>
       </c>
       <c r="E56" t="n">
         <v>15</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.2066048234701157</v>
+        <v>0.2142375111579895</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9241333603858948</v>
+        <v>0.9214000105857849</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4497551620006561</v>
+        <v>0.4412038922309875</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8579999804496765</v>
+        <v>0.8579000234603882</v>
       </c>
       <c r="E57" t="n">
         <v>16</v>
@@ -1699,16 +1699,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.2046475857496262</v>
+        <v>0.211331233382225</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9236000180244446</v>
+        <v>0.9215333461761475</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4393368661403656</v>
+        <v>0.4383074641227722</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8578000068664551</v>
+        <v>0.8539999723434448</v>
       </c>
       <c r="E58" t="n">
         <v>17</v>
@@ -1721,16 +1721,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.193574532866478</v>
+        <v>0.1987329870462418</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9290000200271606</v>
+        <v>0.9254000186920166</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3992682993412018</v>
+        <v>0.4179566502571106</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8709999918937683</v>
+        <v>0.8672000169754028</v>
       </c>
       <c r="E59" t="n">
         <v>18</v>
@@ -1743,16 +1743,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1872688680887222</v>
+        <v>0.1949048936367035</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9309999942779541</v>
+        <v>0.9293333292007446</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4227326214313507</v>
+        <v>0.4135453701019287</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8605999946594238</v>
+        <v>0.8669999837875366</v>
       </c>
       <c r="E60" t="n">
         <v>19</v>
@@ -1765,16 +1765,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1827298551797867</v>
+        <v>0.1852611601352692</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9330666661262512</v>
+        <v>0.9314000010490417</v>
       </c>
       <c r="C61" t="n">
-        <v>0.434417188167572</v>
+        <v>0.440319150686264</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8615000247955322</v>
+        <v>0.8596000075340271</v>
       </c>
       <c r="E61" t="n">
         <v>20</v>
@@ -1787,16 +1787,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5996091365814209</v>
+        <v>0.5986692309379578</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7928666472434998</v>
+        <v>0.7942333221435547</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4815959334373474</v>
+        <v>0.4911080598831177</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8291000127792358</v>
+        <v>0.8284000158309937</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -1809,16 +1809,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.441993772983551</v>
+        <v>0.4451329112052917</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8454833626747131</v>
+        <v>0.8427500128746033</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5202288031578064</v>
+        <v>0.5308473706245422</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8202000260353088</v>
+        <v>0.8223000168800354</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
@@ -1831,16 +1831,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4148929119110107</v>
+        <v>0.4162002205848694</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8532333374023438</v>
+        <v>0.8532833456993103</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4504182636737823</v>
+        <v>0.446595311164856</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8363000154495239</v>
+        <v>0.8385999798774719</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
@@ -1853,16 +1853,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.3976221978664398</v>
+        <v>0.3997446000576019</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8605666756629944</v>
+        <v>0.8593666553497314</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4486287534236908</v>
+        <v>0.4364489316940308</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8403000235557556</v>
+        <v>0.8446000218391418</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.388282835483551</v>
+        <v>0.3902168571949005</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8625500202178955</v>
+        <v>0.8623999953269958</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4371916949748993</v>
+        <v>0.4505833387374878</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8463000059127808</v>
+        <v>0.8425999879837036</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.3788673877716064</v>
+        <v>0.3810988664627075</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8661666512489319</v>
+        <v>0.866183340549469</v>
       </c>
       <c r="C67" t="n">
-        <v>0.444749116897583</v>
+        <v>0.4442485868930817</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8425999879837036</v>
+        <v>0.8422999978065491</v>
       </c>
       <c r="E67" t="n">
         <v>6</v>
@@ -1919,16 +1919,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.3716155290603638</v>
+        <v>0.3746828436851501</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8687499761581421</v>
+        <v>0.8675833344459534</v>
       </c>
       <c r="C68" t="n">
-        <v>0.432651162147522</v>
+        <v>0.4267905652523041</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8456000089645386</v>
+        <v>0.8468999862670898</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -1941,16 +1941,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.3655321002006531</v>
+        <v>0.3677730560302734</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8713833093643188</v>
+        <v>0.8693000078201294</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4135428667068481</v>
+        <v>0.4183878898620605</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8564000129699707</v>
+        <v>0.8529999852180481</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.360594242811203</v>
+        <v>0.3632146120071411</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8718833327293396</v>
+        <v>0.871999979019165</v>
       </c>
       <c r="C70" t="n">
-        <v>0.40603968501091</v>
+        <v>0.4174115359783173</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8593000173568726</v>
+        <v>0.8529000282287598</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -1985,16 +1985,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.357572078704834</v>
+        <v>0.3594397604465485</v>
       </c>
       <c r="B71" t="n">
-        <v>0.873199999332428</v>
+        <v>0.8718166947364807</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4120030403137207</v>
+        <v>0.4139409065246582</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8547000288963318</v>
+        <v>0.8543999791145325</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -2007,16 +2007,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3529288768768311</v>
+        <v>0.3544895946979523</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8740333318710327</v>
+        <v>0.8736500144004822</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4133762121200562</v>
+        <v>0.419079065322876</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8544999957084656</v>
+        <v>0.850600004196167</v>
       </c>
       <c r="E72" t="n">
         <v>11</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.3481354415416718</v>
+        <v>0.3491805195808411</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8763333559036255</v>
+        <v>0.8754666447639465</v>
       </c>
       <c r="C73" t="n">
-        <v>0.409523606300354</v>
+        <v>0.4054890871047974</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8565999865531921</v>
+        <v>0.8578000068664551</v>
       </c>
       <c r="E73" t="n">
         <v>12</v>
@@ -2051,16 +2051,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.3457628190517426</v>
+        <v>0.3459826111793518</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8770833611488342</v>
+        <v>0.8760833144187927</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4022234976291656</v>
+        <v>0.4160859286785126</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8593000173568726</v>
+        <v>0.8532000184059143</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -2073,16 +2073,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.3428844511508942</v>
+        <v>0.3424281775951385</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8783833384513855</v>
+        <v>0.8776500225067139</v>
       </c>
       <c r="C75" t="n">
-        <v>0.402599036693573</v>
+        <v>0.4002315402030945</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8600999712944031</v>
+        <v>0.8621000051498413</v>
       </c>
       <c r="E75" t="n">
         <v>14</v>
@@ -2095,16 +2095,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.3406036794185638</v>
+        <v>0.3404862284660339</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8787500262260437</v>
+        <v>0.8779000043869019</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4013231992721558</v>
+        <v>0.4036476314067841</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8585000038146973</v>
+        <v>0.8544999957084656</v>
       </c>
       <c r="E76" t="n">
         <v>15</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.3368543088436127</v>
+        <v>0.3366292417049408</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8796666860580444</v>
+        <v>0.8786500096321106</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4116841852664948</v>
+        <v>0.4269644916057587</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8554999828338623</v>
+        <v>0.8500999808311462</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
@@ -2139,16 +2139,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.3347068428993225</v>
+        <v>0.3337652683258057</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8800333142280579</v>
+        <v>0.8811666369438171</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3997123837471008</v>
+        <v>0.4093898832798004</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8605999946594238</v>
+        <v>0.8561000227928162</v>
       </c>
       <c r="E78" t="n">
         <v>17</v>
@@ -2161,16 +2161,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.334301084280014</v>
+        <v>0.3326137363910675</v>
       </c>
       <c r="B79" t="n">
-        <v>0.880216658115387</v>
+        <v>0.880383312702179</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3985735774040222</v>
+        <v>0.3928995430469513</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8639000058174133</v>
+        <v>0.8611000180244446</v>
       </c>
       <c r="E79" t="n">
         <v>18</v>
@@ -2183,16 +2183,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.3306940793991089</v>
+        <v>0.3298300206661224</v>
       </c>
       <c r="B80" t="n">
-        <v>0.881600022315979</v>
+        <v>0.8816666603088379</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4174525439739227</v>
+        <v>0.4218015670776367</v>
       </c>
       <c r="D80" t="n">
-        <v>0.852400004863739</v>
+        <v>0.8489000201225281</v>
       </c>
       <c r="E80" t="n">
         <v>19</v>
@@ -2205,16 +2205,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.3284380435943604</v>
+        <v>0.326450914144516</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8840500116348267</v>
+        <v>0.8829166889190674</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4037545621395111</v>
+        <v>0.3972134292125702</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8600000143051147</v>
+        <v>0.8608999848365784</v>
       </c>
       <c r="E81" t="n">
         <v>20</v>
@@ -2227,16 +2227,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.7859715223312378</v>
+        <v>0.7075148820877075</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7320666909217834</v>
+        <v>0.7598999738693237</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5412493944168091</v>
+        <v>0.5346742272377014</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8131999969482422</v>
+        <v>0.8148999810218811</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -2249,16 +2249,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4858131110668182</v>
+        <v>0.4809524416923523</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8300333619117737</v>
+        <v>0.8313666582107544</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4918017089366913</v>
+        <v>0.5097512006759644</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8276000022888184</v>
+        <v>0.8222000002861023</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -2271,13 +2271,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.4436493813991547</v>
+        <v>0.4426462650299072</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8439666628837585</v>
+        <v>0.8442333340644836</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4685737192630768</v>
+        <v>0.4791355431079865</v>
       </c>
       <c r="D84" t="n">
         <v>0.8313999772071838</v>
@@ -2293,16 +2293,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4239705801010132</v>
+        <v>0.4211589992046356</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8486666679382324</v>
+        <v>0.8501333594322205</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4792760610580444</v>
+        <v>0.4928250908851624</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8342999815940857</v>
+        <v>0.8203999996185303</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -2315,16 +2315,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.4046756327152252</v>
+        <v>0.4026917517185211</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8579000234603882</v>
+        <v>0.857866644859314</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4484313428401947</v>
+        <v>0.4501355588436127</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8416000008583069</v>
+        <v>0.8379999995231628</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.3915242254734039</v>
+        <v>0.3886957466602325</v>
       </c>
       <c r="B87" t="n">
-        <v>0.86080002784729</v>
+        <v>0.8621000051498413</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4456072151660919</v>
+        <v>0.4448098242282867</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8414000272750854</v>
+        <v>0.8375999927520752</v>
       </c>
       <c r="E87" t="n">
         <v>6</v>
@@ -2359,16 +2359,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.3812105357646942</v>
+        <v>0.376977950334549</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8647666573524475</v>
+        <v>0.866433322429657</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4292525351047516</v>
+        <v>0.4291988909244537</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.8495000004768372</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -2381,16 +2381,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.3719563186168671</v>
+        <v>0.3682599365711212</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8678666949272156</v>
+        <v>0.8691999912261963</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4514179229736328</v>
+        <v>0.4494232535362244</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8374999761581421</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.366386741399765</v>
+        <v>0.3624087870121002</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8708999752998352</v>
+        <v>0.8721666932106018</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4291001856327057</v>
+        <v>0.4374367594718933</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8446000218391418</v>
+        <v>0.8446999788284302</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -2425,16 +2425,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.3599782288074493</v>
+        <v>0.3536711633205414</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8732333183288574</v>
+        <v>0.8737000226974487</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4321408271789551</v>
+        <v>0.427337110042572</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8446000218391418</v>
+        <v>0.8485000133514404</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -2447,16 +2447,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.3544813394546509</v>
+        <v>0.3494687378406525</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8726000189781189</v>
+        <v>0.8747000098228455</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4402890205383301</v>
+        <v>0.438013881444931</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8424000144004822</v>
+        <v>0.8478999733924866</v>
       </c>
       <c r="E92" t="n">
         <v>11</v>
@@ -2469,16 +2469,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.3468785583972931</v>
+        <v>0.3405570387840271</v>
       </c>
       <c r="B93" t="n">
-        <v>0.876466691493988</v>
+        <v>0.8772666454315186</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4285524487495422</v>
+        <v>0.4339460432529449</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8465999960899353</v>
+        <v>0.8471999764442444</v>
       </c>
       <c r="E93" t="n">
         <v>12</v>
@@ -2491,16 +2491,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.3439754843711853</v>
+        <v>0.3374778628349304</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8773333430290222</v>
+        <v>0.8769999742507935</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4200356006622314</v>
+        <v>0.4451867043972015</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8529999852180481</v>
+        <v>0.8406000137329102</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -2513,16 +2513,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.3373904228210449</v>
+        <v>0.3297215104103088</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8777999877929688</v>
+        <v>0.880466639995575</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4147716760635376</v>
+        <v>0.4236070215702057</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8532000184059143</v>
+        <v>0.8525999784469604</v>
       </c>
       <c r="E95" t="n">
         <v>14</v>
@@ -2535,16 +2535,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.3325162529945374</v>
+        <v>0.3254851698875427</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8812000155448914</v>
+        <v>0.882099986076355</v>
       </c>
       <c r="C96" t="n">
-        <v>0.429532527923584</v>
+        <v>0.465869665145874</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8463000059127808</v>
+        <v>0.8392999768257141</v>
       </c>
       <c r="E96" t="n">
         <v>15</v>
@@ -2557,16 +2557,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.3281274437904358</v>
+        <v>0.3189763128757477</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8817999958992004</v>
+        <v>0.8858333230018616</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4178059101104736</v>
+        <v>0.4219676852226257</v>
       </c>
       <c r="D97" t="n">
-        <v>0.850600004196167</v>
+        <v>0.8553000092506409</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -2579,16 +2579,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.3250386416912079</v>
+        <v>0.3181156814098358</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8816999793052673</v>
+        <v>0.8849999904632568</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4328989684581757</v>
+        <v>0.4375811517238617</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8510000109672546</v>
+        <v>0.8503000140190125</v>
       </c>
       <c r="E98" t="n">
         <v>17</v>
@@ -2601,16 +2601,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.3226591050624847</v>
+        <v>0.3152374625205994</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8816666603088379</v>
+        <v>0.885699987411499</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4154262244701385</v>
+        <v>0.4176582992076874</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8517000079154968</v>
+        <v>0.8549000024795532</v>
       </c>
       <c r="E99" t="n">
         <v>18</v>
@@ -2623,16 +2623,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.3181039094924927</v>
+        <v>0.3094746768474579</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8866333365440369</v>
+        <v>0.8882666826248169</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4274933934211731</v>
+        <v>0.4438112676143646</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8481000065803528</v>
+        <v>0.845300018787384</v>
       </c>
       <c r="E100" t="n">
         <v>19</v>
@@ -2645,16 +2645,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.3169401884078979</v>
+        <v>0.3062938749790192</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8859666585922241</v>
+        <v>0.8897666931152344</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4325788915157318</v>
+        <v>0.4208089411258698</v>
       </c>
       <c r="D101" t="n">
-        <v>0.848800003528595</v>
+        <v>0.8561000227928162</v>
       </c>
       <c r="E101" t="n">
         <v>20</v>
@@ -2667,16 +2667,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.8254520893096924</v>
+        <v>0.9145531058311462</v>
       </c>
       <c r="B102" t="n">
-        <v>0.7143333554267883</v>
+        <v>0.6815999746322632</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5870189070701599</v>
+        <v>0.6200187206268311</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8011999726295471</v>
+        <v>0.7864999771118164</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
@@ -2689,16 +2689,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.5346681475639343</v>
+        <v>0.5620159506797791</v>
       </c>
       <c r="B103" t="n">
-        <v>0.8173333406448364</v>
+        <v>0.805733323097229</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5221753716468811</v>
+        <v>0.5364435315132141</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8216000199317932</v>
+        <v>0.8137000203132629</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
@@ -2711,16 +2711,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.4781202673912048</v>
+        <v>0.4953866600990295</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8353333473205566</v>
+        <v>0.8267999887466431</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4980468153953552</v>
+        <v>0.5160017609596252</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8235999941825867</v>
+        <v>0.8187000155448914</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -2733,16 +2733,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.4454166293144226</v>
+        <v>0.4564017951488495</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8470000028610229</v>
+        <v>0.8422666788101196</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5077587366104126</v>
+        <v>0.5238660573959351</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8198999762535095</v>
+        <v>0.8134999871253967</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -2755,16 +2755,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.4250201880931854</v>
+        <v>0.4341029226779938</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8516666889190674</v>
+        <v>0.8482666611671448</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4769667387008667</v>
+        <v>0.4781932234764099</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8341000080108643</v>
+        <v>0.8323000073432922</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.4083087146282196</v>
+        <v>0.4149480164051056</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8583333492279053</v>
+        <v>0.8562666773796082</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4644112288951874</v>
+        <v>0.4694506824016571</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8378000259399414</v>
+        <v>0.8356999754905701</v>
       </c>
       <c r="E107" t="n">
         <v>6</v>
@@ -2799,16 +2799,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.3944327235221863</v>
+        <v>0.4040829539299011</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8633333444595337</v>
+        <v>0.8595333099365234</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4704365730285645</v>
+        <v>0.4661716818809509</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8366000056266785</v>
+        <v>0.8385000228881836</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -2821,16 +2821,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.3851409554481506</v>
+        <v>0.3927087783813477</v>
       </c>
       <c r="B109" t="n">
-        <v>0.86326664686203</v>
+        <v>0.8611999750137329</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4499496519565582</v>
+        <v>0.4509048461914062</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8428000211715698</v>
+        <v>0.84170001745224</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.3693312406539917</v>
+        <v>0.3787585496902466</v>
       </c>
       <c r="B110" t="n">
-        <v>0.870199978351593</v>
+        <v>0.8681333065032959</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4525212943553925</v>
+        <v>0.4544053077697754</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8411999940872192</v>
+        <v>0.8406999707221985</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -2865,16 +2865,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.3651490807533264</v>
+        <v>0.3718059659004211</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8706666827201843</v>
+        <v>0.8677999973297119</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4584053158760071</v>
+        <v>0.4756357073783875</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8364999890327454</v>
+        <v>0.828000009059906</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -2887,16 +2887,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.3560526669025421</v>
+        <v>0.3647669553756714</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8751333355903625</v>
+        <v>0.8704000115394592</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4524291455745697</v>
+        <v>0.4705241620540619</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8402000069618225</v>
+        <v>0.8359000086784363</v>
       </c>
       <c r="E112" t="n">
         <v>11</v>
@@ -2909,16 +2909,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.3490228950977325</v>
+        <v>0.3595817089080811</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8755333423614502</v>
+        <v>0.8705999851226807</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4329744577407837</v>
+        <v>0.4479927718639374</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8458999991416931</v>
+        <v>0.8424999713897705</v>
       </c>
       <c r="E113" t="n">
         <v>12</v>
@@ -2931,16 +2931,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.3423652946949005</v>
+        <v>0.3518275916576385</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8775333166122437</v>
+        <v>0.8739333152770996</v>
       </c>
       <c r="C114" t="n">
-        <v>0.445927768945694</v>
+        <v>0.4505369663238525</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8458999991416931</v>
+        <v>0.842199981212616</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -2953,16 +2953,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.3364800214767456</v>
+        <v>0.3452690243721008</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8818666934967041</v>
+        <v>0.878000020980835</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4324373602867126</v>
+        <v>0.4535726606845856</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8497999906539917</v>
+        <v>0.8438000082969666</v>
       </c>
       <c r="E115" t="n">
         <v>14</v>
@@ -2975,16 +2975,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.329374223947525</v>
+        <v>0.3383462429046631</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8785333037376404</v>
+        <v>0.8792666792869568</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4406121075153351</v>
+        <v>0.4511391520500183</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8463000059127808</v>
+        <v>0.8461999893188477</v>
       </c>
       <c r="E116" t="n">
         <v>15</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.3217554688453674</v>
+        <v>0.332390159368515</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8838666677474976</v>
+        <v>0.8814666867256165</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4544501900672913</v>
+        <v>0.4634973704814911</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8475000262260437</v>
+        <v>0.8438000082969666</v>
       </c>
       <c r="E117" t="n">
         <v>16</v>
@@ -3019,16 +3019,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.321943998336792</v>
+        <v>0.3294519782066345</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8838666677474976</v>
+        <v>0.8818666934967041</v>
       </c>
       <c r="C118" t="n">
-        <v>0.445233017206192</v>
+        <v>0.4633664190769196</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8457000255584717</v>
+        <v>0.8392000198364258</v>
       </c>
       <c r="E118" t="n">
         <v>17</v>
@@ -3041,16 +3041,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.3119449615478516</v>
+        <v>0.3218404054641724</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8883333206176758</v>
+        <v>0.8844666481018066</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4271140694618225</v>
+        <v>0.4414291977882385</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8539999723434448</v>
+        <v>0.8503000140190125</v>
       </c>
       <c r="E119" t="n">
         <v>18</v>
@@ -3063,16 +3063,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.3081619441509247</v>
+        <v>0.3205318748950958</v>
       </c>
       <c r="B120" t="n">
-        <v>0.888866662979126</v>
+        <v>0.8857333064079285</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4346896409988403</v>
+        <v>0.4516958892345428</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8533999919891357</v>
+        <v>0.8454999923706055</v>
       </c>
       <c r="E120" t="n">
         <v>19</v>
@@ -3085,16 +3085,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.3048242926597595</v>
+        <v>0.3136026263237</v>
       </c>
       <c r="B121" t="n">
-        <v>0.890999972820282</v>
+        <v>0.8877999782562256</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4393096268177032</v>
+        <v>0.4524779319763184</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8500999808311462</v>
+        <v>0.8443999886512756</v>
       </c>
       <c r="E121" t="n">
         <v>20</v>
@@ -3107,16 +3107,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.6494203209877014</v>
+        <v>0.6882061958312988</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7675666809082031</v>
+        <v>0.7523999810218811</v>
       </c>
       <c r="C122" t="n">
-        <v>0.497546374797821</v>
+        <v>0.5405643582344055</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8216000199317932</v>
+        <v>0.8046000003814697</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4523499608039856</v>
+        <v>0.4607405066490173</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8370833396911621</v>
+        <v>0.8350499868392944</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4674665629863739</v>
+        <v>0.4590969681739807</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8319000005722046</v>
+        <v>0.8374999761581421</v>
       </c>
       <c r="E123" t="n">
         <v>2</v>
@@ -3151,16 +3151,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4158958196640015</v>
+        <v>0.4215825200080872</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8498333096504211</v>
+        <v>0.8481666445732117</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4523870646953583</v>
+        <v>0.4471167623996735</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8343999981880188</v>
+        <v>0.8374999761581421</v>
       </c>
       <c r="E124" t="n">
         <v>3</v>
@@ -3173,16 +3173,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.3916891813278198</v>
+        <v>0.3995584845542908</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8586333394050598</v>
+        <v>0.8573166728019714</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4410781264305115</v>
+        <v>0.4224439859390259</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8403000235557556</v>
+        <v>0.8465999960899353</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -3195,16 +3195,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.3771449029445648</v>
+        <v>0.3841862976551056</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8628333210945129</v>
+        <v>0.8614166378974915</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4186941981315613</v>
+        <v>0.4321005344390869</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8475000262260437</v>
+        <v>0.8409000039100647</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.3648054003715515</v>
+        <v>0.3720090389251709</v>
       </c>
       <c r="B127" t="n">
-        <v>0.8670499920845032</v>
+        <v>0.866183340549469</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4603323638439178</v>
+        <v>0.4423219263553619</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8335000276565552</v>
+        <v>0.8352000117301941</v>
       </c>
       <c r="E127" t="n">
         <v>6</v>
@@ -3239,16 +3239,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.3573790490627289</v>
+        <v>0.3628954887390137</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8685333132743835</v>
+        <v>0.8679999709129333</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4211476445198059</v>
+        <v>0.4318580627441406</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8499000072479248</v>
+        <v>0.8418999910354614</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -3261,16 +3261,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.3490245640277863</v>
+        <v>0.3561067283153534</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8707000017166138</v>
+        <v>0.8711333274841309</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3885168731212616</v>
+        <v>0.4130844175815582</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8611999750137329</v>
+        <v>0.8507999777793884</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -3283,16 +3283,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.340099036693573</v>
+        <v>0.3499696850776672</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8755166530609131</v>
+        <v>0.8735499978065491</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3989481329917908</v>
+        <v>0.4038943946361542</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8604999780654907</v>
+        <v>0.8555999994277954</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -3305,16 +3305,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.3360365331172943</v>
+        <v>0.3431489765644073</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8748166561126709</v>
+        <v>0.8747000098228455</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3986557424068451</v>
+        <v>0.3958823084831238</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8553000092506409</v>
+        <v>0.8567000031471252</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -3327,16 +3327,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.331505298614502</v>
+        <v>0.3388542830944061</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8763666749000549</v>
+        <v>0.8749666810035706</v>
       </c>
       <c r="C132" t="n">
-        <v>0.389279693365097</v>
+        <v>0.39605712890625</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8582999706268311</v>
+        <v>0.8565000295639038</v>
       </c>
       <c r="E132" t="n">
         <v>11</v>
@@ -3349,16 +3349,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.3258354365825653</v>
+        <v>0.3335383236408234</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8793333172798157</v>
+        <v>0.8775333166122437</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3867333233356476</v>
+        <v>0.4125860929489136</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8622000217437744</v>
+        <v>0.8553000092506409</v>
       </c>
       <c r="E133" t="n">
         <v>12</v>
@@ -3371,16 +3371,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.3241411447525024</v>
+        <v>0.3290458619594574</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8799333572387695</v>
+        <v>0.8791499733924866</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3929784297943115</v>
+        <v>0.3936676979064941</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8622000217437744</v>
+        <v>0.8616999983787537</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -3393,16 +3393,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.3189480602741241</v>
+        <v>0.3242868781089783</v>
       </c>
       <c r="B135" t="n">
-        <v>0.882099986076355</v>
+        <v>0.880299985408783</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3916386365890503</v>
+        <v>0.3933292627334595</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8604000210762024</v>
+        <v>0.8603000044822693</v>
       </c>
       <c r="E135" t="n">
         <v>14</v>
@@ -3415,16 +3415,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.3155398070812225</v>
+        <v>0.322517991065979</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8821666836738586</v>
+        <v>0.8809499740600586</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4060930907726288</v>
+        <v>0.3939990699291229</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8550999760627747</v>
+        <v>0.8583999872207642</v>
       </c>
       <c r="E136" t="n">
         <v>15</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.3127720057964325</v>
+        <v>0.3188861608505249</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8826333284378052</v>
+        <v>0.8814833164215088</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3997148871421814</v>
+        <v>0.3941425085067749</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8575000166893005</v>
+        <v>0.8582000136375427</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -3459,16 +3459,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.3094767928123474</v>
+        <v>0.3151157200336456</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8846333622932434</v>
+        <v>0.8827833533287048</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3831512928009033</v>
+        <v>0.3934460580348969</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8615000247955322</v>
+        <v>0.8589000105857849</v>
       </c>
       <c r="E138" t="n">
         <v>17</v>
@@ -3481,16 +3481,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.3091192841529846</v>
+        <v>0.3140138387680054</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8847000002861023</v>
+        <v>0.8838000297546387</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3906690180301666</v>
+        <v>0.3847304284572601</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8600999712944031</v>
+        <v>0.8610000014305115</v>
       </c>
       <c r="E139" t="n">
         <v>18</v>
@@ -3503,16 +3503,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.304853230714798</v>
+        <v>0.312090665102005</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8858500123023987</v>
+        <v>0.8846166729927063</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4209848642349243</v>
+        <v>0.409687340259552</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8521999716758728</v>
+        <v>0.852400004863739</v>
       </c>
       <c r="E140" t="n">
         <v>19</v>
@@ -3525,16 +3525,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.3036150932312012</v>
+        <v>0.3080429136753082</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8869500160217285</v>
+        <v>0.8863833546638489</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3996022641658783</v>
+        <v>0.4027735590934753</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8587999939918518</v>
+        <v>0.859499990940094</v>
       </c>
       <c r="E141" t="n">
         <v>20</v>
@@ -3547,16 +3547,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.8270901441574097</v>
+        <v>0.8779399991035461</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6985999941825867</v>
+        <v>0.6885333061218262</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5687105059623718</v>
+        <v>0.5790446996688843</v>
       </c>
       <c r="D142" t="n">
-        <v>0.796500027179718</v>
+        <v>0.7919999957084656</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -3569,16 +3569,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.5139414072036743</v>
+        <v>0.5199569463729858</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8174999952316284</v>
+        <v>0.8163666725158691</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5314678549766541</v>
+        <v>0.5415716171264648</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8126000165939331</v>
+        <v>0.8130999803543091</v>
       </c>
       <c r="E143" t="n">
         <v>2</v>
@@ -3591,16 +3591,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.46659255027771</v>
+        <v>0.4674000144004822</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8364666700363159</v>
+        <v>0.8343666791915894</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5016409158706665</v>
+        <v>0.4883345067501068</v>
       </c>
       <c r="D144" t="n">
-        <v>0.8213000297546387</v>
+        <v>0.8287000060081482</v>
       </c>
       <c r="E144" t="n">
         <v>3</v>
@@ -3613,16 +3613,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.4459555149078369</v>
+        <v>0.4436852633953094</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8412666916847229</v>
+        <v>0.842033326625824</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4863370060920715</v>
+        <v>0.477628231048584</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8273000121116638</v>
+        <v>0.8324999809265137</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -3635,16 +3635,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.4190790355205536</v>
+        <v>0.41888427734375</v>
       </c>
       <c r="B146" t="n">
-        <v>0.8492000102996826</v>
+        <v>0.848966658115387</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4595255851745605</v>
+        <v>0.4628730118274689</v>
       </c>
       <c r="D146" t="n">
-        <v>0.8396000266075134</v>
+        <v>0.8385999798774719</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.402870237827301</v>
+        <v>0.4023562371730804</v>
       </c>
       <c r="B147" t="n">
-        <v>0.8561999797821045</v>
+        <v>0.8565999865531921</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4522596597671509</v>
+        <v>0.4679384231567383</v>
       </c>
       <c r="D147" t="n">
-        <v>0.8434000015258789</v>
+        <v>0.8303999900817871</v>
       </c>
       <c r="E147" t="n">
         <v>6</v>
@@ -3679,16 +3679,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.3912356793880463</v>
+        <v>0.3892067074775696</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8599666953086853</v>
+        <v>0.8605333566665649</v>
       </c>
       <c r="C148" t="n">
-        <v>0.438334584236145</v>
+        <v>0.4344663918018341</v>
       </c>
       <c r="D148" t="n">
-        <v>0.8461999893188477</v>
+        <v>0.8438000082969666</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -3701,16 +3701,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.3793581426143646</v>
+        <v>0.3804946541786194</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8635666370391846</v>
+        <v>0.8648666739463806</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4582276344299316</v>
+        <v>0.4761416018009186</v>
       </c>
       <c r="D149" t="n">
-        <v>0.8370000123977661</v>
+        <v>0.8285999894142151</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -3723,16 +3723,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.3716572821140289</v>
+        <v>0.3723490834236145</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8654000163078308</v>
+        <v>0.8644000291824341</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4455556571483612</v>
+        <v>0.4509941041469574</v>
       </c>
       <c r="D150" t="n">
-        <v>0.8414000272750854</v>
+        <v>0.8410999774932861</v>
       </c>
       <c r="E150" t="n">
         <v>9</v>
@@ -3745,16 +3745,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.3658626675605774</v>
+        <v>0.3654364049434662</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8646666407585144</v>
+        <v>0.8661333322525024</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4348194301128387</v>
+        <v>0.4309683740139008</v>
       </c>
       <c r="D151" t="n">
-        <v>0.8454999923706055</v>
+        <v>0.847599983215332</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -3767,16 +3767,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.358494758605957</v>
+        <v>0.3589627146720886</v>
       </c>
       <c r="B152" t="n">
-        <v>0.8685333132743835</v>
+        <v>0.8697333335876465</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4388031661510468</v>
+        <v>0.4452565908432007</v>
       </c>
       <c r="D152" t="n">
-        <v>0.8460000157356262</v>
+        <v>0.8439000248908997</v>
       </c>
       <c r="E152" t="n">
         <v>11</v>
@@ -3789,16 +3789,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.3508855998516083</v>
+        <v>0.3512321412563324</v>
       </c>
       <c r="B153" t="n">
-        <v>0.8728333115577698</v>
+        <v>0.871999979019165</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4430759847164154</v>
+        <v>0.4508594870567322</v>
       </c>
       <c r="D153" t="n">
-        <v>0.8431000113487244</v>
+        <v>0.8410000205039978</v>
       </c>
       <c r="E153" t="n">
         <v>12</v>
@@ -3811,16 +3811,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.3429526686668396</v>
+        <v>0.3484355807304382</v>
       </c>
       <c r="B154" t="n">
-        <v>0.8745666742324829</v>
+        <v>0.8737000226974487</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4404739737510681</v>
+        <v>0.4317976534366608</v>
       </c>
       <c r="D154" t="n">
-        <v>0.8483999967575073</v>
+        <v>0.8454999923706055</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -3833,16 +3833,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.3408882021903992</v>
+        <v>0.3404742181301117</v>
       </c>
       <c r="B155" t="n">
-        <v>0.8744999766349792</v>
+        <v>0.8764333128929138</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4387673735618591</v>
+        <v>0.4351264238357544</v>
       </c>
       <c r="D155" t="n">
-        <v>0.8481000065803528</v>
+        <v>0.8474000096321106</v>
       </c>
       <c r="E155" t="n">
         <v>14</v>
@@ -3855,16 +3855,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.3319332301616669</v>
+        <v>0.3341560363769531</v>
       </c>
       <c r="B156" t="n">
-        <v>0.8785333037376404</v>
+        <v>0.8773666620254517</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4256280362606049</v>
+        <v>0.4402659237384796</v>
       </c>
       <c r="D156" t="n">
-        <v>0.8525999784469604</v>
+        <v>0.8464000225067139</v>
       </c>
       <c r="E156" t="n">
         <v>15</v>
@@ -3877,16 +3877,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.3274592161178589</v>
+        <v>0.3314026296138763</v>
       </c>
       <c r="B157" t="n">
-        <v>0.8803333044052124</v>
+        <v>0.8785333037376404</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4246201515197754</v>
+        <v>0.4266718327999115</v>
       </c>
       <c r="D157" t="n">
-        <v>0.8526999950408936</v>
+        <v>0.8543000221252441</v>
       </c>
       <c r="E157" t="n">
         <v>16</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.3256356716156006</v>
+        <v>0.3316071629524231</v>
       </c>
       <c r="B158" t="n">
-        <v>0.8800333142280579</v>
+        <v>0.8777333498001099</v>
       </c>
       <c r="C158" t="n">
-        <v>0.43787881731987</v>
+        <v>0.460803359746933</v>
       </c>
       <c r="D158" t="n">
-        <v>0.8478999733924866</v>
+        <v>0.8396000266075134</v>
       </c>
       <c r="E158" t="n">
         <v>17</v>
@@ -3921,16 +3921,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.3212156891822815</v>
+        <v>0.3253421783447266</v>
       </c>
       <c r="B159" t="n">
-        <v>0.8815666437149048</v>
+        <v>0.8810666799545288</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4063675105571747</v>
+        <v>0.4182078540325165</v>
       </c>
       <c r="D159" t="n">
-        <v>0.8582000136375427</v>
+        <v>0.853600025177002</v>
       </c>
       <c r="E159" t="n">
         <v>18</v>
@@ -3943,16 +3943,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.3160437941551208</v>
+        <v>0.3201815187931061</v>
       </c>
       <c r="B160" t="n">
-        <v>0.8852666616439819</v>
+        <v>0.8830666542053223</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4244130849838257</v>
+        <v>0.4293725192546844</v>
       </c>
       <c r="D160" t="n">
-        <v>0.8515999913215637</v>
+        <v>0.847599983215332</v>
       </c>
       <c r="E160" t="n">
         <v>19</v>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.3135459423065186</v>
+        <v>0.3185896575450897</v>
       </c>
       <c r="B161" t="n">
-        <v>0.8851000070571899</v>
+        <v>0.883400022983551</v>
       </c>
       <c r="C161" t="n">
-        <v>0.4179728031158447</v>
+        <v>0.4226294457912445</v>
       </c>
       <c r="D161" t="n">
-        <v>0.8565999865531921</v>
+        <v>0.8514999747276306</v>
       </c>
       <c r="E161" t="n">
         <v>20</v>
@@ -3987,16 +3987,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.043980479240417</v>
+        <v>1.015768647193909</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6008666753768921</v>
+        <v>0.6208000183105469</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6591912508010864</v>
+        <v>0.662138819694519</v>
       </c>
       <c r="D162" t="n">
-        <v>0.7526000142097473</v>
+        <v>0.7597000002861023</v>
       </c>
       <c r="E162" t="n">
         <v>1</v>
@@ -4009,16 +4009,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.6115289330482483</v>
+        <v>0.5956504344940186</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7767999768257141</v>
+        <v>0.7842000126838684</v>
       </c>
       <c r="C163" t="n">
-        <v>0.5724354982376099</v>
+        <v>0.5616721510887146</v>
       </c>
       <c r="D163" t="n">
-        <v>0.7900000214576721</v>
+        <v>0.7949000000953674</v>
       </c>
       <c r="E163" t="n">
         <v>2</v>
@@ -4031,16 +4031,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.5396280884742737</v>
+        <v>0.5281097888946533</v>
       </c>
       <c r="B164" t="n">
-        <v>0.8064666390419006</v>
+        <v>0.8120666742324829</v>
       </c>
       <c r="C164" t="n">
-        <v>0.5527473092079163</v>
+        <v>0.5346964597702026</v>
       </c>
       <c r="D164" t="n">
-        <v>0.8062999844551086</v>
+        <v>0.8125</v>
       </c>
       <c r="E164" t="n">
         <v>3</v>
@@ -4053,16 +4053,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.4969625473022461</v>
+        <v>0.4852521419525146</v>
       </c>
       <c r="B165" t="n">
-        <v>0.826200008392334</v>
+        <v>0.8266666531562805</v>
       </c>
       <c r="C165" t="n">
-        <v>0.5723116397857666</v>
+        <v>0.5170843601226807</v>
       </c>
       <c r="D165" t="n">
-        <v>0.7983999848365784</v>
+        <v>0.820900022983551</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -4075,16 +4075,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.4712576568126678</v>
+        <v>0.4627352952957153</v>
       </c>
       <c r="B166" t="n">
-        <v>0.8339999914169312</v>
+        <v>0.835266649723053</v>
       </c>
       <c r="C166" t="n">
-        <v>0.5068199634552002</v>
+        <v>0.5056164264678955</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8242999911308289</v>
+        <v>0.8230000138282776</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -4097,16 +4097,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.4484973251819611</v>
+        <v>0.4447279274463654</v>
       </c>
       <c r="B167" t="n">
-        <v>0.8412666916847229</v>
+        <v>0.8448666930198669</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5033500194549561</v>
+        <v>0.4888160526752472</v>
       </c>
       <c r="D167" t="n">
-        <v>0.8278999924659729</v>
+        <v>0.8274000287055969</v>
       </c>
       <c r="E167" t="n">
         <v>6</v>
@@ -4119,16 +4119,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.4270400106906891</v>
+        <v>0.4264302849769592</v>
       </c>
       <c r="B168" t="n">
-        <v>0.8489999771118164</v>
+        <v>0.8498666882514954</v>
       </c>
       <c r="C168" t="n">
-        <v>0.4946666359901428</v>
+        <v>0.4892637133598328</v>
       </c>
       <c r="D168" t="n">
-        <v>0.83160001039505</v>
+        <v>0.8309999704360962</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -4141,16 +4141,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.4133190810680389</v>
+        <v>0.4153094291687012</v>
       </c>
       <c r="B169" t="n">
-        <v>0.8515999913215637</v>
+        <v>0.8538666963577271</v>
       </c>
       <c r="C169" t="n">
-        <v>0.5135376453399658</v>
+        <v>0.4899476170539856</v>
       </c>
       <c r="D169" t="n">
-        <v>0.8210999965667725</v>
+        <v>0.8270000219345093</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -4163,16 +4163,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.3970552384853363</v>
+        <v>0.4017545878887177</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8582000136375427</v>
+        <v>0.8598666787147522</v>
       </c>
       <c r="C170" t="n">
-        <v>0.4809661209583282</v>
+        <v>0.4787127077579498</v>
       </c>
       <c r="D170" t="n">
-        <v>0.8309000134468079</v>
+        <v>0.8323000073432922</v>
       </c>
       <c r="E170" t="n">
         <v>9</v>
@@ -4185,16 +4185,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.3841849565505981</v>
+        <v>0.392475038766861</v>
       </c>
       <c r="B171" t="n">
-        <v>0.8594666719436646</v>
+        <v>0.8608666658401489</v>
       </c>
       <c r="C171" t="n">
-        <v>0.543783962726593</v>
+        <v>0.5250424742698669</v>
       </c>
       <c r="D171" t="n">
-        <v>0.8105999827384949</v>
+        <v>0.8148999810218811</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -4207,16 +4207,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.3745057880878448</v>
+        <v>0.3827479779720306</v>
       </c>
       <c r="B172" t="n">
-        <v>0.8651999831199646</v>
+        <v>0.8654666543006897</v>
       </c>
       <c r="C172" t="n">
-        <v>0.4915052652359009</v>
+        <v>0.4845869541168213</v>
       </c>
       <c r="D172" t="n">
-        <v>0.8310999870300293</v>
+        <v>0.8323000073432922</v>
       </c>
       <c r="E172" t="n">
         <v>11</v>
@@ -4229,16 +4229,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.3647611737251282</v>
+        <v>0.3730888664722443</v>
       </c>
       <c r="B173" t="n">
-        <v>0.8687999844551086</v>
+        <v>0.8671333193778992</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4635814428329468</v>
+        <v>0.4763932526111603</v>
       </c>
       <c r="D173" t="n">
-        <v>0.843999981880188</v>
+        <v>0.8367000222206116</v>
       </c>
       <c r="E173" t="n">
         <v>12</v>
@@ -4251,16 +4251,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.360331654548645</v>
+        <v>0.3618281781673431</v>
       </c>
       <c r="B174" t="n">
-        <v>0.8705333471298218</v>
+        <v>0.869866669178009</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4714620113372803</v>
+        <v>0.4759519994258881</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8396000266075134</v>
+        <v>0.8342000246047974</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -4273,16 +4273,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.3480000793933868</v>
+        <v>0.3582721352577209</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8737333416938782</v>
+        <v>0.8734666705131531</v>
       </c>
       <c r="C175" t="n">
-        <v>0.4645861387252808</v>
+        <v>0.4531155824661255</v>
       </c>
       <c r="D175" t="n">
-        <v>0.8363999724388123</v>
+        <v>0.8470000028610229</v>
       </c>
       <c r="E175" t="n">
         <v>14</v>
@@ -4295,16 +4295,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.3384618163108826</v>
+        <v>0.3461115956306458</v>
       </c>
       <c r="B176" t="n">
-        <v>0.8743333220481873</v>
+        <v>0.8765333294868469</v>
       </c>
       <c r="C176" t="n">
-        <v>0.5215217471122742</v>
+        <v>0.4957388639450073</v>
       </c>
       <c r="D176" t="n">
-        <v>0.8216000199317932</v>
+        <v>0.8264999985694885</v>
       </c>
       <c r="E176" t="n">
         <v>15</v>
@@ -4317,16 +4317,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.3318052291870117</v>
+        <v>0.3392825424671173</v>
       </c>
       <c r="B177" t="n">
-        <v>0.8773999810218811</v>
+        <v>0.8793333172798157</v>
       </c>
       <c r="C177" t="n">
-        <v>0.488084614276886</v>
+        <v>0.5011023283004761</v>
       </c>
       <c r="D177" t="n">
-        <v>0.8385999798774719</v>
+        <v>0.8317999839782715</v>
       </c>
       <c r="E177" t="n">
         <v>16</v>
@@ -4339,16 +4339,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.3287231028079987</v>
+        <v>0.3378916084766388</v>
       </c>
       <c r="B178" t="n">
-        <v>0.8796666860580444</v>
+        <v>0.8782666921615601</v>
       </c>
       <c r="C178" t="n">
-        <v>0.4810714423656464</v>
+        <v>0.4765001833438873</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8367999792098999</v>
+        <v>0.839900016784668</v>
       </c>
       <c r="E178" t="n">
         <v>17</v>
@@ -4361,16 +4361,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.3211854696273804</v>
+        <v>0.3317175507545471</v>
       </c>
       <c r="B179" t="n">
-        <v>0.8815333247184753</v>
+        <v>0.8814666867256165</v>
       </c>
       <c r="C179" t="n">
-        <v>0.4793985784053802</v>
+        <v>0.4685222208499908</v>
       </c>
       <c r="D179" t="n">
-        <v>0.8454999923706055</v>
+        <v>0.8442999720573425</v>
       </c>
       <c r="E179" t="n">
         <v>18</v>
@@ -4383,16 +4383,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.3154430091381073</v>
+        <v>0.3222075402736664</v>
       </c>
       <c r="B180" t="n">
-        <v>0.8846666812896729</v>
+        <v>0.8842666745185852</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4796044826507568</v>
+        <v>0.4888677597045898</v>
       </c>
       <c r="D180" t="n">
-        <v>0.8356999754905701</v>
+        <v>0.838699996471405</v>
       </c>
       <c r="E180" t="n">
         <v>19</v>
@@ -4405,16 +4405,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.3099075257778168</v>
+        <v>0.3143804669380188</v>
       </c>
       <c r="B181" t="n">
-        <v>0.8848000168800354</v>
+        <v>0.8881999850273132</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4888795912265778</v>
+        <v>0.4556738138198853</v>
       </c>
       <c r="D181" t="n">
-        <v>0.8379999995231628</v>
+        <v>0.8482000231742859</v>
       </c>
       <c r="E181" t="n">
         <v>20</v>
@@ -4422,6 +4422,2646 @@
       <c r="F181" t="inlineStr">
         <is>
           <t>dnn_model3_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.002156376838684</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.6572999954223633</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.7288387417793274</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.743399977684021</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.6599836945533752</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.762416660785675</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.6226359605789185</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.7735000252723694</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.5582073330879211</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.809499979019165</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.5555675029754639</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.8084999918937683</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.506979763507843</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.8254666924476624</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.5381776094436646</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.8137000203132629</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.4791601598262787</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.8352333307266235</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.5044745206832886</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.8260999917984009</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.459289163351059</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.8420833349227905</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.4844339787960052</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.836899995803833</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.444634735584259</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.8474500179290771</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.4726468324661255</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.8331999778747559</v>
+      </c>
+      <c r="E188" t="n">
+        <v>7</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.4343833327293396</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.850849986076355</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.4693433046340942</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.8411999940872192</v>
+      </c>
+      <c r="E189" t="n">
+        <v>8</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.4236581027507782</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.8547333478927612</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.4488949775695801</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.8458999991416931</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.4159751236438751</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.8577666878700256</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.4420493543148041</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.8479999899864197</v>
+      </c>
+      <c r="E191" t="n">
+        <v>10</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.4088675081729889</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.8607666492462158</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.4455947279930115</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.8492000102996826</v>
+      </c>
+      <c r="E192" t="n">
+        <v>11</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.4017064273357391</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.8621833324432373</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.4415097236633301</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.850600004196167</v>
+      </c>
+      <c r="E193" t="n">
+        <v>12</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.3963635563850403</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.8636500239372253</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.4341062903404236</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.8518999814987183</v>
+      </c>
+      <c r="E194" t="n">
+        <v>13</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.3916289806365967</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.8661333322525024</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.4292275309562683</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.8532000184059143</v>
+      </c>
+      <c r="E195" t="n">
+        <v>14</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.3862714767456055</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.8686833381652832</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.4248583912849426</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.8525999784469604</v>
+      </c>
+      <c r="E196" t="n">
+        <v>15</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.3821866512298584</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.8696666955947876</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.423258900642395</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.8568999767303467</v>
+      </c>
+      <c r="E197" t="n">
+        <v>16</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.3781298100948334</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.870033323764801</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.4265451729297638</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.8578000068664551</v>
+      </c>
+      <c r="E198" t="n">
+        <v>17</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.3750678896903992</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.8719666600227356</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.4214275479316711</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.8582000136375427</v>
+      </c>
+      <c r="E199" t="n">
+        <v>18</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.3710313439369202</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.8724499940872192</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.4160267114639282</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.8616999983787537</v>
+      </c>
+      <c r="E200" t="n">
+        <v>19</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.3668608367443085</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.8740166425704956</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.4124388098716736</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.862500011920929</v>
+      </c>
+      <c r="E201" t="n">
+        <v>20</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>cnn_model1_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1.003007173538208</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.6413999795913696</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.6683973073959351</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.7731000185012817</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.5972316265106201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.7910333275794983</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.5906041264533997</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.7878999710083008</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.5236856937408447</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.8088333606719971</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.5357772707939148</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.8061000108718872</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.488491952419281</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.8185333609580994</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.5103277564048767</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.8080000281333923</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.4625507891178131</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.8278999924659729</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.4759243130683899</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.8270000219345093</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.442792683839798</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.8348666429519653</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.4735598564147949</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.821399986743927</v>
+      </c>
+      <c r="E207" t="n">
+        <v>6</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.4279959499835968</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.8381999731063843</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.4509850144386292</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.8392000198364258</v>
+      </c>
+      <c r="E208" t="n">
+        <v>7</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.4174810349941254</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.8451666831970215</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.4541388154029846</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.8371000289916992</v>
+      </c>
+      <c r="E209" t="n">
+        <v>8</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.406998872756958</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.8490666747093201</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.4387150406837463</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.8406000137329102</v>
+      </c>
+      <c r="E210" t="n">
+        <v>9</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.3977431058883667</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.8535000085830688</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.4341590702533722</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.843500018119812</v>
+      </c>
+      <c r="E211" t="n">
+        <v>10</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.3897066414356232</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.8562999963760376</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.4345127046108246</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.8424000144004822</v>
+      </c>
+      <c r="E212" t="n">
+        <v>11</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.3791421949863434</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.8624666929244995</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.420929878950119</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.8508999943733215</v>
+      </c>
+      <c r="E213" t="n">
+        <v>12</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.3682537376880646</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.8651666641235352</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.4123670756816864</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.8557000160217285</v>
+      </c>
+      <c r="E214" t="n">
+        <v>13</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.3604999482631683</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.8701000213623047</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4108169376850128</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.8550999760627747</v>
+      </c>
+      <c r="E215" t="n">
+        <v>14</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.3532559275627136</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.8720666766166687</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4091112315654755</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.8561999797821045</v>
+      </c>
+      <c r="E216" t="n">
+        <v>15</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.3475363552570343</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.8743333220481873</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.412478893995285</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.85589998960495</v>
+      </c>
+      <c r="E217" t="n">
+        <v>16</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.3436824679374695</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.8754000067710876</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.4084421992301941</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.8550000190734863</v>
+      </c>
+      <c r="E218" t="n">
+        <v>17</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.3388962745666504</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.8759333491325378</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.4003018438816071</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.8616999983787537</v>
+      </c>
+      <c r="E219" t="n">
+        <v>18</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.3333446681499481</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.878766655921936</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.3996568322181702</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.8619999885559082</v>
+      </c>
+      <c r="E220" t="n">
+        <v>19</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.3286910951137543</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.8812999725341797</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.3939180374145508</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.8628000020980835</v>
+      </c>
+      <c r="E221" t="n">
+        <v>20</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>cnn_model1_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1.798483610153198</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.316266655921936</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.476313591003418</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.4262000024318695</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1.290008306503296</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.4521999955177307</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.172018527984619</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.5005000233650208</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1.118144869804382</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.5612000226974487</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1.07313346862793</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.5755000114440918</v>
+      </c>
+      <c r="E224" t="n">
+        <v>3</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1.046554923057556</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.5909333229064941</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.027709722518921</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.5925999879837036</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.9972119331359863</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.6048666834831238</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.012346148490906</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.5929999947547913</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.9613732695579529</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.615933358669281</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.9561517834663391</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.6105999946594238</v>
+      </c>
+      <c r="E227" t="n">
+        <v>6</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.9315733313560486</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.6201333403587341</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.928282618522644</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.6230999827384949</v>
+      </c>
+      <c r="E228" t="n">
+        <v>7</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.9047659635543823</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.624666690826416</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.9135090708732605</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.6202999949455261</v>
+      </c>
+      <c r="E229" t="n">
+        <v>8</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.8828887939453125</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.6291333436965942</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.8970741033554077</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.6241999864578247</v>
+      </c>
+      <c r="E230" t="n">
+        <v>9</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.8660445809364319</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.6425333619117737</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.8782082200050354</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.6506999731063843</v>
+      </c>
+      <c r="E231" t="n">
+        <v>10</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.8410821557044983</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.68913334608078</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.8572032451629639</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.6980000138282776</v>
+      </c>
+      <c r="E232" t="n">
+        <v>11</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.7972285747528076</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.7163333296775818</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.8053027391433716</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.7159000039100647</v>
+      </c>
+      <c r="E233" t="n">
+        <v>12</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.7671666145324707</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.7301333546638489</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.7836208939552307</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.722599983215332</v>
+      </c>
+      <c r="E234" t="n">
+        <v>13</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.7471213936805725</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.7373999953269958</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.7737444043159485</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.7312999963760376</v>
+      </c>
+      <c r="E235" t="n">
+        <v>14</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.732718288898468</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.743066668510437</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.7762841582298279</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.7246000170707703</v>
+      </c>
+      <c r="E236" t="n">
+        <v>15</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.7186495661735535</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.7467333078384399</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.7575459480285645</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.739300012588501</v>
+      </c>
+      <c r="E237" t="n">
+        <v>16</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.7070828080177307</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.7519999742507935</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.7712767720222473</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.7307999730110168</v>
+      </c>
+      <c r="E238" t="n">
+        <v>17</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.6970048546791077</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.7558666467666626</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.7380478382110596</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.743399977684021</v>
+      </c>
+      <c r="E239" t="n">
+        <v>18</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.6871901154518127</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.758733332157135</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.7326454520225525</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.7475000023841858</v>
+      </c>
+      <c r="E240" t="n">
+        <v>19</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.6768698692321777</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.7610666751861572</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.727699339389801</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.7487999796867371</v>
+      </c>
+      <c r="E241" t="n">
+        <v>20</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>cnn_model1_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1.054842114448547</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.58160001039505</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.8013460040092468</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.7049000263214111</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.7372791171073914</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.7248333096504211</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.7467976808547974</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.7348999977111816</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.6630406379699707</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.7552833557128906</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.6631297469139099</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.7396000027656555</v>
+      </c>
+      <c r="E244" t="n">
+        <v>3</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.6161407828330994</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.770383358001709</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.6200246810913086</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.7652000188827515</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.5875098705291748</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.779116690158844</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.5998128056526184</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.7875999808311462</v>
+      </c>
+      <c r="E246" t="n">
+        <v>5</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.5652122497558594</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.7875000238418579</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.6028643250465393</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.7843000292778015</v>
+      </c>
+      <c r="E247" t="n">
+        <v>6</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.5511205196380615</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.7929166555404663</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.5831891894340515</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.7793999910354614</v>
+      </c>
+      <c r="E248" t="n">
+        <v>7</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.5359106659889221</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.8005499839782715</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.5646427869796753</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.7954999804496765</v>
+      </c>
+      <c r="E249" t="n">
+        <v>8</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.5231156945228577</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.805733323097229</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.5442577600479126</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.7997999787330627</v>
+      </c>
+      <c r="E250" t="n">
+        <v>9</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.5142091512680054</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.8102999925613403</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.5330314636230469</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.8080999851226807</v>
+      </c>
+      <c r="E251" t="n">
+        <v>10</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.5044006705284119</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.8158833384513855</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.5309368371963501</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.8130999803543091</v>
+      </c>
+      <c r="E252" t="n">
+        <v>11</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.4958978891372681</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.8187166452407837</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.5395233035087585</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.8065000176429749</v>
+      </c>
+      <c r="E253" t="n">
+        <v>12</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.4909982085227966</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.8217999935150146</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.5222300291061401</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.821399986743927</v>
+      </c>
+      <c r="E254" t="n">
+        <v>13</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.4829666316509247</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.826616644859314</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.5129744410514832</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.8198000192642212</v>
+      </c>
+      <c r="E255" t="n">
+        <v>14</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.4770269393920898</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.8284666538238525</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.4995968341827393</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.8277999758720398</v>
+      </c>
+      <c r="E256" t="n">
+        <v>15</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.472245991230011</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.8308833241462708</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.500832736492157</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.8252000212669373</v>
+      </c>
+      <c r="E257" t="n">
+        <v>16</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.4664362370967865</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.8339499831199646</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.4912032783031464</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.8299000263214111</v>
+      </c>
+      <c r="E258" t="n">
+        <v>17</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.462451845407486</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.835099995136261</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.4868040978908539</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.8343999981880188</v>
+      </c>
+      <c r="E259" t="n">
+        <v>18</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.4584784209728241</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.8381666541099548</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.4949853122234344</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.8273000121116638</v>
+      </c>
+      <c r="E260" t="n">
+        <v>19</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.4538730978965759</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.8396666646003723</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.4824295938014984</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.8355000019073486</v>
+      </c>
+      <c r="E261" t="n">
+        <v>20</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>cnn_model2_full</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1.425866365432739</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.4630666673183441</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1.116836667060852</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.545199990272522</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.9536706805229187</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.6438666582107544</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.8030255436897278</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.7067999839782715</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.742572009563446</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.7267666459083557</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.7176691889762878</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.7419999837875366</v>
+      </c>
+      <c r="E264" t="n">
+        <v>3</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.6774559617042542</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.7482666373252869</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.6745904088020325</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.7418000102043152</v>
+      </c>
+      <c r="E265" t="n">
+        <v>4</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.6297417879104614</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.7620333433151245</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.6185824275016785</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.7687000036239624</v>
+      </c>
+      <c r="E266" t="n">
+        <v>5</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.5909448862075806</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.777400016784668</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.5929701328277588</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.7736999988555908</v>
+      </c>
+      <c r="E267" t="n">
+        <v>6</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.5680263042449951</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.7888000011444092</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.5738149285316467</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.7847999930381775</v>
+      </c>
+      <c r="E268" t="n">
+        <v>7</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.5523234009742737</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.7954000234603882</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.5732167363166809</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.7870000004768372</v>
+      </c>
+      <c r="E269" t="n">
+        <v>8</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.538134753704071</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.8000666499137878</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.5484961867332458</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.7953000068664551</v>
+      </c>
+      <c r="E270" t="n">
+        <v>9</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.5269328355789185</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.8040000200271606</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.5471554398536682</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.7957999706268311</v>
+      </c>
+      <c r="E271" t="n">
+        <v>10</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.5198506116867065</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.8066333532333374</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.5344363451004028</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.7998999953269958</v>
+      </c>
+      <c r="E272" t="n">
+        <v>11</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.5113131999969482</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.8083000183105469</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.5449467301368713</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.7937999963760376</v>
+      </c>
+      <c r="E273" t="n">
+        <v>12</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.5055094361305237</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.8093666434288025</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.5221133232116699</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.8040000200271606</v>
+      </c>
+      <c r="E274" t="n">
+        <v>13</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.4984769821166992</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.8118000030517578</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.5184311270713806</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.8061000108718872</v>
+      </c>
+      <c r="E275" t="n">
+        <v>14</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.4921661913394928</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.8144000172615051</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.51998370885849</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.8073999881744385</v>
+      </c>
+      <c r="E276" t="n">
+        <v>15</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.4849043190479279</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.8166000247001648</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.521979033946991</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.8012999892234802</v>
+      </c>
+      <c r="E277" t="n">
+        <v>16</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.4819827675819397</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.8186333179473877</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5198538899421692</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.8068000078201294</v>
+      </c>
+      <c r="E278" t="n">
+        <v>17</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.4758093357086182</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.8212000131607056</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.5022271275520325</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.8141000270843506</v>
+      </c>
+      <c r="E279" t="n">
+        <v>18</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.4738344252109528</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.822700023651123</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.497863233089447</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.8203999996185303</v>
+      </c>
+      <c r="E280" t="n">
+        <v>19</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.4689992070198059</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.8268333077430725</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.5132660865783691</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.8098000288009644</v>
+      </c>
+      <c r="E281" t="n">
+        <v>20</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>cnn_model2_half</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1.454683303833008</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.4963333308696747</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1.003122091293335</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.6320000290870667</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.8897747397422791</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.6845333576202393</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.814688503742218</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.6929000020027161</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.7732790112495422</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.7120000123977661</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.7509480714797974</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.7107999920845032</v>
+      </c>
+      <c r="E284" t="n">
+        <v>3</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.7132091522216797</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.7291333079338074</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.7011816501617432</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.7264999747276306</v>
+      </c>
+      <c r="E285" t="n">
+        <v>4</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.6756755709648132</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.7422000169754028</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.6675464510917664</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.7450000047683716</v>
+      </c>
+      <c r="E286" t="n">
+        <v>5</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.6460447311401367</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.7515333294868469</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.6574741005897522</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.7455999851226807</v>
+      </c>
+      <c r="E287" t="n">
+        <v>6</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.6242682337760925</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.7577333450317383</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.6284211277961731</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.7641000151634216</v>
+      </c>
+      <c r="E288" t="n">
+        <v>7</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.606396496295929</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.7651333212852478</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.6184108853340149</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.7635999917984009</v>
+      </c>
+      <c r="E289" t="n">
+        <v>8</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.5937071442604065</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.7662666440010071</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6069963574409485</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.7662000060081482</v>
+      </c>
+      <c r="E290" t="n">
+        <v>9</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.5773207545280457</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.7736666798591614</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.6163355708122253</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.7674000263214111</v>
+      </c>
+      <c r="E291" t="n">
+        <v>10</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.5689249634742737</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.777733325958252</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6172634363174438</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.7663999795913696</v>
+      </c>
+      <c r="E292" t="n">
+        <v>11</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.5595904588699341</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.7812666893005371</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.5910232663154602</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.7700999975204468</v>
+      </c>
+      <c r="E293" t="n">
+        <v>12</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.5495830774307251</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.7846000194549561</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5715028643608093</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.7846000194549561</v>
+      </c>
+      <c r="E294" t="n">
+        <v>13</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.5428650975227356</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.7904000282287598</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.5724990963935852</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.7821000218391418</v>
+      </c>
+      <c r="E295" t="n">
+        <v>14</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.5319250822067261</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.79339998960495</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.5805238485336304</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.78329998254776</v>
+      </c>
+      <c r="E296" t="n">
+        <v>15</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.5255706310272217</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.7968000173568726</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5566974878311157</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.789900004863739</v>
+      </c>
+      <c r="E297" t="n">
+        <v>16</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.5209628343582153</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.8008000254631042</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.574472963809967</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.785099983215332</v>
+      </c>
+      <c r="E298" t="n">
+        <v>17</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.5110517740249634</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.8069333434104919</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.5439952611923218</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.7978000044822693</v>
+      </c>
+      <c r="E299" t="n">
+        <v>18</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.5048056244850159</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.8102666735649109</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.5496735572814941</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.7935000061988831</v>
+      </c>
+      <c r="E300" t="n">
+        <v>19</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.5002933144569397</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.8121333122253418</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.5378904342651367</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.8011000156402588</v>
+      </c>
+      <c r="E301" t="n">
+        <v>20</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>cnn_model2_quarter</t>
         </is>
       </c>
     </row>
